--- a/biology/Botanique/George_Herbert_Pethybridge/George_Herbert_Pethybridge.xlsx
+++ b/biology/Botanique/George_Herbert_Pethybridge/George_Herbert_Pethybridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Herbert Pethybridge (1871 - 23 mai 1948) est un botaniste et mycologue britannique, qui fut pendant de nombreuses années une autorité en matière de pathologie végétale en Grande-Bretagne. Il est issu d'une famille bien connue dans les milieux juridique, médical, et financier des Cornouailles. Il a poursuivi ses études au Dunheved College à Launceston et à l'université du Pays de Galles à Aberystwyth. Une grande partie de sa carrière scientifique se déroula dans le « laboratoire de phytopthologie » du ministère de l'Agriculture du Royaume-Uni.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On lui doit notamment la première description, en 1913, de la maladie de la pourriture rose chez la pomme de terre et l'identification de son agent causal, le champignon Phytophthora erythroseptica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui doit notamment la première description, en 1913, de la maladie de la pourriture rose chez la pomme de terre et l'identification de son agent causal, le champignon Phytophthora erythroseptica.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1903 :The Leaf-spots of Arum maculatum. Irish Nat. ; 12. 7 pp.
 1910 : Investigations on potato diseases. Ed. Cornell University
@@ -576,7 +592,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1899 : Beiträge zur Kenntnis der Einwirkung der anorganischen Salze auf die Entwicklung und den Bau der Pflanzen . Ed. Kaestner. 95 pp.
 1905 : The vegetation of the district lying south of Dublin: (Pl. 7-12.). Volumen 25, Nº 6 de Proceedings of the Royal Irish Academy. Ed. Hodges, Figgis &amp; Co. 57 pp.
@@ -608,7 +626,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut président de la Société mycologique britannique en 1926.
 </t>
